--- a/literature_review/gray_literature/Cohens_Kappa.xlsx
+++ b/literature_review/gray_literature/Cohens_Kappa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/Own/Papers_and_Projects/comparison_ArchRec_tools/GitHub_SARbenchmarks/literature_review/gray_literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D40CF0F-6455-CA4B-9938-505892C49621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC60701D-CAFE-8747-BFAA-218F8372024E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{E34F97B0-F1C8-E84E-8C54-DB5E482818BA}"/>
   </bookViews>
@@ -485,10 +485,15 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -533,45 +538,45 @@
         <v>11</v>
       </c>
       <c r="B2" s="5">
-        <v>1161</v>
+        <v>315</v>
       </c>
       <c r="C2" s="5">
-        <v>1119</v>
+        <v>311</v>
       </c>
       <c r="D2" s="5">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F3" si="0">B2-D2</f>
-        <v>1089</v>
+        <v>302</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" ref="G2:G3" si="1">B2-E2</f>
-        <v>1083</v>
+        <v>304</v>
       </c>
       <c r="I2" s="6">
         <f t="shared" ref="I2:I3" si="2">C2/B2</f>
-        <v>0.96382428940568476</v>
+        <v>0.98730158730158735</v>
       </c>
       <c r="J2" s="6">
         <f t="shared" ref="J2:J3" si="3">(D2/B2)*(E2/B2)</f>
-        <v>4.1664162810728525E-3</v>
+        <v>1.4411690602166793E-3</v>
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:K3" si="4">(F2/B2)*(G2/B2)</f>
-        <v>0.87496744987280406</v>
+        <v>0.92525069286974049</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ref="L2:L3" si="5">J2+K2</f>
-        <v>0.8791338661538769</v>
+        <v>0.92669186192995712</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="7">
         <f t="shared" ref="N2:N3" si="6">(I2-L2)/(1-L2)</f>
-        <v>0.70069605568445503</v>
+        <v>0.8267803134451478</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -579,45 +584,45 @@
         <v>12</v>
       </c>
       <c r="B3" s="5">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="2"/>
-        <v>0.94029850746268662</v>
+        <v>1</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="3"/>
-        <v>3.6756515927823571E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="4"/>
-        <v>0.64869681443528626</v>
+        <v>0.84027777777777768</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="5"/>
-        <v>0.68545333036310985</v>
+        <v>0.8472222222222221</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="7">
         <f t="shared" si="6"/>
-        <v>0.81019830028328621</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
